--- a/citations_data.xlsx
+++ b/citations_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prajyotg/1.work/personal/scholar-citation-visualizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAE60FB-407E-3A4E-B617-51A5A58B6A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B8D1FD-F29C-504B-9B54-6E3690AEA0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="640" windowWidth="34420" windowHeight="26300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="223">
   <si>
     <t>Aishwarya's Paper</t>
   </si>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -784,27 +784,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -812,7 +802,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,7 +1109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1169,7 +1158,7 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1189,7 +1178,7 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1209,7 +1198,7 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1249,7 +1238,7 @@
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1289,7 +1278,7 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1329,7 +1318,7 @@
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1407,18 +1396,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD542DD-7CDC-B347-8581-D863FF6DC177}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F57" sqref="F2:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="80.83203125" customWidth="1"/>
     <col min="2" max="2" width="101" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1437,13 +1426,15 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1451,13 +1442,15 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1465,13 +1458,15 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1479,13 +1474,15 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1493,13 +1490,15 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1507,13 +1506,15 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1521,13 +1522,15 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1535,13 +1538,15 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1549,13 +1554,15 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1563,13 +1570,15 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1577,13 +1586,15 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1591,13 +1602,15 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1605,12 +1618,14 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>205</v>
       </c>
@@ -1619,12 +1634,14 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>205</v>
       </c>
@@ -1633,12 +1650,14 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>205</v>
       </c>
@@ -1647,7 +1666,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -1667,7 +1686,7 @@
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1687,7 +1706,7 @@
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1707,7 +1726,7 @@
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1727,7 +1746,7 @@
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1747,7 +1766,7 @@
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1767,7 +1786,7 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1787,7 +1806,7 @@
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="5" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1807,7 +1826,7 @@
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="5" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1827,7 +1846,7 @@
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1847,7 +1866,7 @@
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1867,7 +1886,7 @@
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1887,7 +1906,7 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1907,7 +1926,7 @@
       <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1927,7 +1946,7 @@
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1947,7 +1966,7 @@
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1967,7 +1986,7 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1987,7 +2006,7 @@
       <c r="E33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2007,7 +2026,7 @@
       <c r="E34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="5" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2027,7 +2046,7 @@
       <c r="E35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="5" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2047,7 +2066,7 @@
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="5" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2067,7 +2086,7 @@
       <c r="E37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="5" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2087,7 +2106,7 @@
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="5" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2107,7 +2126,7 @@
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="5" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2127,7 +2146,7 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2147,7 +2166,7 @@
       <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2167,7 +2186,7 @@
       <c r="E42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2187,7 +2206,7 @@
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2207,7 +2226,7 @@
       <c r="E44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2227,7 +2246,7 @@
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2247,7 +2266,7 @@
       <c r="E46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="5" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2267,7 +2286,7 @@
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="5" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2287,7 +2306,7 @@
       <c r="E48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2307,7 +2326,7 @@
       <c r="E49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2327,7 +2346,7 @@
       <c r="E50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="5" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2347,7 +2366,7 @@
       <c r="E51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="5" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2367,7 +2386,7 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="5" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2387,7 +2406,7 @@
       <c r="E53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="5" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2407,7 +2426,7 @@
       <c r="E54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2427,7 +2446,7 @@
       <c r="E55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2447,7 +2466,7 @@
       <c r="E56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2467,7 +2486,7 @@
       <c r="E57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2537,7 +2556,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2557,7 +2576,7 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2577,7 +2596,7 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2597,7 +2616,7 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2617,7 +2636,7 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2637,7 +2656,7 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2657,7 +2676,7 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2677,7 +2696,7 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2697,7 +2716,7 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2717,7 +2736,7 @@
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2737,7 +2756,7 @@
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2757,7 +2776,7 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2777,7 +2796,7 @@
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2797,7 +2816,7 @@
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2817,7 +2836,7 @@
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2837,7 +2856,7 @@
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2857,7 +2876,7 @@
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2877,7 +2896,7 @@
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2933,7 +2952,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2953,7 +2972,7 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2973,7 +2992,7 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2993,7 +3012,7 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3013,7 +3032,7 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3033,7 +3052,7 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3053,7 +3072,7 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3073,7 +3092,7 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3093,7 +3112,7 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3113,7 +3132,7 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3133,7 +3152,7 @@
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>220</v>
       </c>
     </row>
